--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86B444-D0D9-402C-BA5D-1BE1653CD6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DAC27-6826-45DB-B2CC-7D76836CA0C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
   <si>
     <t>Persona</t>
   </si>
@@ -392,7 +392,7 @@
   <dimension ref="E1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +537,21 @@
       </c>
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H9" s="1"/>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43525</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H10" s="1"/>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9DAC27-6826-45DB-B2CC-7D76836CA0C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5188BDA-332E-4180-A647-CFB3B49C9241}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Riunione interna</t>
+  </si>
+  <si>
+    <t>GPDR</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
   <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
-  <sortState ref="E2:I13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I13">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
@@ -392,15 +395,15 @@
   <dimension ref="E1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="9" width="15.7109375" customWidth="1"/>
+    <col min="5" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -434,7 +437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -451,7 +454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -468,7 +471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -485,7 +488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -502,7 +505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -519,7 +522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -536,7 +539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -553,21 +556,35 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>43535</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5188BDA-332E-4180-A647-CFB3B49C9241}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <definedName name="Progetto">Foglio1!$B:$B</definedName>
     <definedName name="Tempo">Foglio1!$G:$G</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,17 +112,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD855A81-C244-4352-8941-7766EBFB1D6A}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576" xr:uid="{7A908729-E9EE-4718-9492-1EDAA8DA7722}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:I13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576"/>
+  <sortState ref="E2:I13">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{2DC30C39-59B9-4713-8159-3051D2B47652}" name="Persona"/>
-    <tableColumn id="4" xr3:uid="{62A38111-220C-4C01-B113-2B8D0960A9BD}" name="Progetto"/>
-    <tableColumn id="1" xr3:uid="{FAB7A0BA-4742-4D08-939D-37C27539C596}" name="Attività"/>
-    <tableColumn id="2" xr3:uid="{20FEBF9A-D56C-4A74-8AE9-05ECD7560DBB}" name="Data"/>
-    <tableColumn id="5" xr3:uid="{59ED0FF4-4529-434B-A972-2C1B87CBE876}" name="Tempo (min)"/>
+    <tableColumn id="3" name="Persona"/>
+    <tableColumn id="4" name="Progetto"/>
+    <tableColumn id="1" name="Attività"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="5" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -391,19 +390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="9" width="15.6640625" customWidth="1"/>
+    <col min="5" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>5</v>
       </c>
@@ -437,7 +436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>5</v>
       </c>
@@ -454,7 +453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>5</v>
       </c>
@@ -471,7 +470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -488,7 +487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>5</v>
       </c>
@@ -505,7 +504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -522,7 +521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -539,7 +538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>5</v>
       </c>
@@ -556,7 +555,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -573,13 +572,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43542</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
     </row>
   </sheetData>

--- a/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
+++ b/Documentazione/GDPRPrj_TempiLavoro/GDPRPrj_TempiLavoro_Collettivi.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934627EF-D54C-47CD-9281-E74B963A0141}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Persona</t>
   </si>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,17 +113,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
-  <autoFilter ref="E1:I1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="E1:I1048576" totalsRowShown="0">
+  <autoFilter ref="E1:I1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="E2:I13">
     <sortCondition ref="H1:H1048576"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" name="Persona"/>
-    <tableColumn id="4" name="Progetto"/>
-    <tableColumn id="1" name="Attività"/>
-    <tableColumn id="2" name="Data"/>
-    <tableColumn id="5" name="Tempo (min)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Persona"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progetto"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Attività"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Tempo (min)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -390,11 +391,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +591,21 @@
       </c>
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="1"/>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43558</v>
+      </c>
+      <c r="I12">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H13" s="1"/>
